--- a/Home/OperationalARG&AWS.xlsx
+++ b/Home/OperationalARG&AWS.xlsx
@@ -8110,7 +8110,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Home/OperationalARG&AWS.xlsx
+++ b/Home/OperationalARG&AWS.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2243" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2248" uniqueCount="870">
   <si>
     <t>1</t>
   </si>
@@ -2662,6 +2662,12 @@
   </si>
   <si>
     <t>Mata_ARG</t>
+  </si>
+  <si>
+    <t>NYABIHU_ARG</t>
+  </si>
+  <si>
+    <t>Mukamira</t>
   </si>
 </sst>
 </file>
@@ -2718,7 +2724,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2741,12 +2747,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2828,6 +2845,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8107,10 +8131,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8490,6 +8514,29 @@
       </c>
       <c r="G16" s="21" t="s">
         <v>848</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="33">
+        <v>16</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>868</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>869</v>
+      </c>
+      <c r="E17" s="35">
+        <v>44562</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>815</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>847</v>
       </c>
     </row>
   </sheetData>
